--- a/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/output/total-cell-conc.xlsx
+++ b/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/output/total-cell-conc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Sample_name</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Arginine pos</t>
-  </si>
-  <si>
-    <t>Asparagine pos</t>
   </si>
   <si>
     <t>Asparagine-13C4 pos</t>
@@ -506,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,13 +570,10 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>21</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -638,13 +632,10 @@
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -703,13 +694,10 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -768,13 +756,10 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -833,13 +818,10 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -898,13 +880,10 @@
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -963,79 +942,76 @@
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>32</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>33</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -1050,57 +1026,54 @@
         <v>115.4308109845743</v>
       </c>
       <c r="F14">
-        <v>-18.38394388824639</v>
+        <v>75.18674707271119</v>
       </c>
       <c r="G14">
-        <v>75.18674707271119</v>
+        <v>-4.200035199897649</v>
       </c>
       <c r="H14">
-        <v>-4.200035199897649</v>
+        <v>-368.2735143030116</v>
       </c>
       <c r="I14">
-        <v>-368.2735143030116</v>
+        <v>1847.177099787325</v>
       </c>
       <c r="J14">
-        <v>1847.177099787325</v>
+        <v>161.6037070884698</v>
       </c>
       <c r="K14">
-        <v>161.6037070884698</v>
+        <v>418.337913288296</v>
       </c>
       <c r="L14">
-        <v>418.337913288296</v>
+        <v>98.85980002065344</v>
       </c>
       <c r="M14">
-        <v>98.85980002065344</v>
+        <v>49.63334804680461</v>
       </c>
       <c r="N14">
-        <v>49.63334804680461</v>
+        <v>37.16121445070437</v>
       </c>
       <c r="O14">
-        <v>37.16121445070437</v>
+        <v>-8.424510616559658</v>
       </c>
       <c r="P14">
-        <v>-8.424510616559658</v>
+        <v>151.791377999364</v>
       </c>
       <c r="Q14">
-        <v>151.791377999364</v>
+        <v>-34.92493340532203</v>
       </c>
       <c r="R14">
-        <v>-34.92493340532203</v>
+        <v>13.23861406855987</v>
       </c>
       <c r="S14">
-        <v>13.23861406855987</v>
+        <v>52.26140617682518</v>
       </c>
       <c r="T14">
-        <v>52.26140617682518</v>
-      </c>
-      <c r="U14">
         <v>56.75160070458125</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1115,57 +1088,54 @@
         <v>92.51140534276367</v>
       </c>
       <c r="F15">
-        <v>-14.9113416968167</v>
+        <v>52.54740816292494</v>
       </c>
       <c r="G15">
-        <v>52.54740816292494</v>
+        <v>-3.515986652519019</v>
       </c>
       <c r="H15">
-        <v>-3.515986652519019</v>
+        <v>-369.9101146669772</v>
       </c>
       <c r="I15">
-        <v>-369.9101146669772</v>
+        <v>1894.584128939767</v>
       </c>
       <c r="J15">
-        <v>1894.584128939767</v>
+        <v>269.6148207279969</v>
       </c>
       <c r="K15">
-        <v>269.6148207279969</v>
+        <v>182.4077430376294</v>
       </c>
       <c r="L15">
-        <v>182.4077430376294</v>
+        <v>84.26410632470827</v>
       </c>
       <c r="M15">
-        <v>84.26410632470827</v>
+        <v>26.12918900468021</v>
       </c>
       <c r="N15">
-        <v>26.12918900468021</v>
+        <v>67.85265997324522</v>
       </c>
       <c r="O15">
-        <v>67.85265997324522</v>
+        <v>-8.232232799491662</v>
       </c>
       <c r="P15">
-        <v>-8.232232799491662</v>
+        <v>168.0371144046171</v>
       </c>
       <c r="Q15">
-        <v>168.0371144046171</v>
+        <v>19.99265299810824</v>
       </c>
       <c r="R15">
-        <v>19.99265299810824</v>
+        <v>12.81294641515688</v>
       </c>
       <c r="S15">
-        <v>12.81294641515688</v>
+        <v>39.81341087615039</v>
       </c>
       <c r="T15">
-        <v>39.81341087615039</v>
-      </c>
-      <c r="U15">
         <v>24.55072235527983</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -1180,57 +1150,54 @@
         <v>113.0187762537761</v>
       </c>
       <c r="F16">
-        <v>-14.79118094885466</v>
+        <v>49.56663057037827</v>
       </c>
       <c r="G16">
-        <v>49.56663057037827</v>
+        <v>-3.700053883756317</v>
       </c>
       <c r="H16">
-        <v>-3.700053883756317</v>
+        <v>-392.9253750332855</v>
       </c>
       <c r="I16">
-        <v>-392.9253750332855</v>
+        <v>1910.727804558905</v>
       </c>
       <c r="J16">
-        <v>1910.727804558905</v>
+        <v>150.9492400489733</v>
       </c>
       <c r="K16">
-        <v>150.9492400489733</v>
+        <v>389.8330555509164</v>
       </c>
       <c r="L16">
-        <v>389.8330555509164</v>
+        <v>159.1712930255574</v>
       </c>
       <c r="M16">
-        <v>159.1712930255574</v>
+        <v>32.55783765897014</v>
       </c>
       <c r="N16">
-        <v>32.55783765897014</v>
+        <v>44.01459913211863</v>
       </c>
       <c r="O16">
-        <v>44.01459913211863</v>
+        <v>-8.161505142431809</v>
       </c>
       <c r="P16">
-        <v>-8.161505142431809</v>
+        <v>147.3929821502016</v>
       </c>
       <c r="Q16">
-        <v>147.3929821502016</v>
+        <v>-83.6424415170012</v>
       </c>
       <c r="R16">
-        <v>-83.6424415170012</v>
+        <v>11.37328312115545</v>
       </c>
       <c r="S16">
-        <v>11.37328312115545</v>
+        <v>44.37676549857461</v>
       </c>
       <c r="T16">
-        <v>44.37676549857461</v>
-      </c>
-      <c r="U16">
         <v>143.636262654356</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -1245,57 +1212,54 @@
         <v>119.4317404610554</v>
       </c>
       <c r="F17">
-        <v>-17.32247644619089</v>
+        <v>72.43117492462736</v>
       </c>
       <c r="G17">
-        <v>72.43117492462736</v>
+        <v>-2.860672030186501</v>
       </c>
       <c r="H17">
-        <v>-2.860672030186501</v>
+        <v>-365.8157826559332</v>
       </c>
       <c r="I17">
-        <v>-365.8157826559332</v>
+        <v>1851.95196599759</v>
       </c>
       <c r="J17">
-        <v>1851.95196599759</v>
+        <v>-88.3470085614514</v>
       </c>
       <c r="K17">
-        <v>-88.3470085614514</v>
+        <v>625.4227173748524</v>
       </c>
       <c r="L17">
-        <v>625.4227173748524</v>
+        <v>161.9082309106011</v>
       </c>
       <c r="M17">
-        <v>161.9082309106011</v>
+        <v>40.4047549421938</v>
       </c>
       <c r="N17">
-        <v>40.4047549421938</v>
+        <v>46.87425312989036</v>
       </c>
       <c r="O17">
-        <v>46.87425312989036</v>
+        <v>-7.845464327550994</v>
       </c>
       <c r="P17">
-        <v>-7.845464327550994</v>
+        <v>171.2338183964044</v>
       </c>
       <c r="Q17">
-        <v>171.2338183964044</v>
+        <v>76.41397489380176</v>
       </c>
       <c r="R17">
-        <v>76.41397489380176</v>
+        <v>19.81862514543958</v>
       </c>
       <c r="S17">
-        <v>19.81862514543958</v>
+        <v>28.23311192441268</v>
       </c>
       <c r="T17">
-        <v>28.23311192441268</v>
-      </c>
-      <c r="U17">
         <v>219.8518110588079</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -1310,57 +1274,54 @@
         <v>125.5292390853057</v>
       </c>
       <c r="F18">
-        <v>-12.49095122106878</v>
+        <v>57.67755199763089</v>
       </c>
       <c r="G18">
-        <v>57.67755199763089</v>
+        <v>-3.77539063235369</v>
       </c>
       <c r="H18">
-        <v>-3.77539063235369</v>
+        <v>-385.7561152615228</v>
       </c>
       <c r="I18">
-        <v>-385.7561152615228</v>
+        <v>2338.119371768385</v>
       </c>
       <c r="J18">
-        <v>2338.119371768385</v>
+        <v>690.8444519923086</v>
       </c>
       <c r="K18">
-        <v>690.8444519923086</v>
+        <v>-175.7224721941887</v>
       </c>
       <c r="L18">
-        <v>-175.7224721941887</v>
+        <v>143.4057874641046</v>
       </c>
       <c r="M18">
-        <v>143.4057874641046</v>
+        <v>51.38405772732538</v>
       </c>
       <c r="N18">
-        <v>51.38405772732538</v>
+        <v>65.83474542971915</v>
       </c>
       <c r="O18">
-        <v>65.83474542971915</v>
+        <v>-8.703412109360739</v>
       </c>
       <c r="P18">
-        <v>-8.703412109360739</v>
+        <v>192.9836426861256</v>
       </c>
       <c r="Q18">
-        <v>192.9836426861256</v>
+        <v>53.89149137026121</v>
       </c>
       <c r="R18">
-        <v>53.89149137026121</v>
+        <v>19.93859739833088</v>
       </c>
       <c r="S18">
-        <v>19.93859739833088</v>
+        <v>54.7482514603098</v>
       </c>
       <c r="T18">
-        <v>54.7482514603098</v>
-      </c>
-      <c r="U18">
         <v>63.97727576304856</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -1375,57 +1336,54 @@
         <v>132.292263743808</v>
       </c>
       <c r="F19">
-        <v>-17.01223906861106</v>
+        <v>63.47609809150383</v>
       </c>
       <c r="G19">
-        <v>63.47609809150383</v>
+        <v>-3.126546685051371</v>
       </c>
       <c r="H19">
-        <v>-3.126546685051371</v>
+        <v>-389.0596897528499</v>
       </c>
       <c r="I19">
-        <v>-389.0596897528499</v>
+        <v>2063.289230313775</v>
       </c>
       <c r="J19">
-        <v>2063.289230313775</v>
+        <v>209.6606278157707</v>
       </c>
       <c r="K19">
-        <v>209.6606278157707</v>
+        <v>641.223267260842</v>
       </c>
       <c r="L19">
-        <v>641.223267260842</v>
+        <v>143.3912937970062</v>
       </c>
       <c r="M19">
-        <v>143.3912937970062</v>
+        <v>33.95084774102132</v>
       </c>
       <c r="N19">
-        <v>33.95084774102132</v>
+        <v>51.26405702743761</v>
       </c>
       <c r="O19">
-        <v>51.26405702743761</v>
+        <v>-8.483304230350193</v>
       </c>
       <c r="P19">
-        <v>-8.483304230350193</v>
+        <v>206.4088874666656</v>
       </c>
       <c r="Q19">
-        <v>206.4088874666656</v>
+        <v>-8.985672913971069</v>
       </c>
       <c r="R19">
-        <v>-8.985672913971069</v>
+        <v>19.20751641288528</v>
       </c>
       <c r="S19">
-        <v>19.20751641288528</v>
+        <v>48.84206834470264</v>
       </c>
       <c r="T19">
-        <v>48.84206834470264</v>
-      </c>
-      <c r="U19">
         <v>104.0356348565058</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -1440,57 +1398,54 @@
         <v>90.11657073167426</v>
       </c>
       <c r="F20">
-        <v>-16.27082720522663</v>
+        <v>52.09007202806608</v>
       </c>
       <c r="G20">
-        <v>52.09007202806608</v>
+        <v>-3.099131770982796</v>
       </c>
       <c r="H20">
-        <v>-3.099131770982796</v>
+        <v>-303.910785090456</v>
       </c>
       <c r="I20">
-        <v>-303.910785090456</v>
+        <v>1521.031093245087</v>
       </c>
       <c r="J20">
-        <v>1521.031093245087</v>
+        <v>227.7991944152482</v>
       </c>
       <c r="K20">
-        <v>227.7991944152482</v>
+        <v>241.0680143040135</v>
       </c>
       <c r="L20">
-        <v>241.0680143040135</v>
+        <v>93.69922550507786</v>
       </c>
       <c r="M20">
-        <v>93.69922550507786</v>
+        <v>45.46350361050467</v>
       </c>
       <c r="N20">
-        <v>45.46350361050467</v>
+        <v>52.56487873058351</v>
       </c>
       <c r="O20">
-        <v>52.56487873058351</v>
+        <v>-6.456693902473836</v>
       </c>
       <c r="P20">
-        <v>-6.456693902473836</v>
+        <v>167.5991892815544</v>
       </c>
       <c r="Q20">
-        <v>167.5991892815544</v>
+        <v>55.40749239643864</v>
       </c>
       <c r="R20">
-        <v>55.40749239643864</v>
+        <v>14.76049778473236</v>
       </c>
       <c r="S20">
-        <v>14.76049778473236</v>
+        <v>42.02230382422994</v>
       </c>
       <c r="T20">
-        <v>42.02230382422994</v>
-      </c>
-      <c r="U20">
         <v>126.3560651869794</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -1505,57 +1460,54 @@
         <v>90.8603131683076</v>
       </c>
       <c r="F21">
-        <v>-16.64866628436043</v>
+        <v>54.35021545408437</v>
       </c>
       <c r="G21">
-        <v>54.35021545408437</v>
+        <v>-2.966347593999437</v>
       </c>
       <c r="H21">
-        <v>-2.966347593999437</v>
+        <v>-309.6196051759606</v>
       </c>
       <c r="I21">
-        <v>-309.6196051759606</v>
+        <v>1609.692702470169</v>
       </c>
       <c r="J21">
-        <v>1609.692702470169</v>
+        <v>135.2212367791134</v>
       </c>
       <c r="K21">
-        <v>135.2212367791134</v>
+        <v>317.2448531850219</v>
       </c>
       <c r="L21">
-        <v>317.2448531850219</v>
+        <v>116.8892329262944</v>
       </c>
       <c r="M21">
-        <v>116.8892329262944</v>
+        <v>45.36263709558862</v>
       </c>
       <c r="N21">
-        <v>45.36263709558862</v>
+        <v>66.67209180924387</v>
       </c>
       <c r="O21">
-        <v>66.67209180924387</v>
+        <v>-6.38594522113101</v>
       </c>
       <c r="P21">
-        <v>-6.38594522113101</v>
+        <v>182.9491333339004</v>
       </c>
       <c r="Q21">
-        <v>182.9491333339004</v>
+        <v>83.47583682879296</v>
       </c>
       <c r="R21">
-        <v>83.47583682879296</v>
+        <v>17.39334011702206</v>
       </c>
       <c r="S21">
-        <v>17.39334011702206</v>
+        <v>59.68305465951098</v>
       </c>
       <c r="T21">
-        <v>59.68305465951098</v>
-      </c>
-      <c r="U21">
         <v>135.9423514045123</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -1570,57 +1522,54 @@
         <v>87.78995343503611</v>
       </c>
       <c r="F22">
-        <v>-17.43825617139769</v>
+        <v>48.79797230186755</v>
       </c>
       <c r="G22">
-        <v>48.79797230186755</v>
+        <v>-3.431981494078876</v>
       </c>
       <c r="H22">
-        <v>-3.431981494078876</v>
+        <v>-338.9963597418238</v>
       </c>
       <c r="I22">
-        <v>-338.9963597418238</v>
+        <v>1516.234962575484</v>
       </c>
       <c r="J22">
-        <v>1516.234962575484</v>
+        <v>120.171652488404</v>
       </c>
       <c r="K22">
-        <v>120.171652488404</v>
+        <v>330.3281389134168</v>
       </c>
       <c r="L22">
-        <v>330.3281389134168</v>
+        <v>91.79956672091696</v>
       </c>
       <c r="M22">
-        <v>91.79956672091696</v>
+        <v>37.98704735025805</v>
       </c>
       <c r="N22">
-        <v>37.98704735025805</v>
+        <v>45.699862470539</v>
       </c>
       <c r="O22">
-        <v>45.699862470539</v>
+        <v>-6.640994654026676</v>
       </c>
       <c r="P22">
-        <v>-6.640994654026676</v>
+        <v>163.2956709344234</v>
       </c>
       <c r="Q22">
-        <v>163.2956709344234</v>
+        <v>27.18904262987289</v>
       </c>
       <c r="R22">
-        <v>27.18904262987289</v>
+        <v>13.75027546619264</v>
       </c>
       <c r="S22">
-        <v>13.75027546619264</v>
+        <v>37.05824791203641</v>
       </c>
       <c r="T22">
-        <v>37.05824791203641</v>
-      </c>
-      <c r="U22">
         <v>113.3113403443707</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>24</v>
@@ -1635,57 +1584,54 @@
         <v>78.97686665160158</v>
       </c>
       <c r="F23">
-        <v>-16.89976277155719</v>
+        <v>42.17560828366041</v>
       </c>
       <c r="G23">
-        <v>42.17560828366041</v>
+        <v>-3.169594470414051</v>
       </c>
       <c r="H23">
-        <v>-3.169594470414051</v>
+        <v>-309.3202064377434</v>
       </c>
       <c r="I23">
-        <v>-309.3202064377434</v>
+        <v>1487.085083646193</v>
       </c>
       <c r="J23">
-        <v>1487.085083646193</v>
+        <v>165.1019813493313</v>
       </c>
       <c r="K23">
-        <v>165.1019813493313</v>
+        <v>181.2455508488956</v>
       </c>
       <c r="L23">
-        <v>181.2455508488956</v>
+        <v>79.92962251799416</v>
       </c>
       <c r="M23">
-        <v>79.92962251799416</v>
+        <v>42.41744808487559</v>
       </c>
       <c r="N23">
-        <v>42.41744808487559</v>
+        <v>47.76816180978093</v>
       </c>
       <c r="O23">
-        <v>47.76816180978093</v>
+        <v>-6.577300498217599</v>
       </c>
       <c r="P23">
-        <v>-6.577300498217599</v>
+        <v>162.9181583282397</v>
       </c>
       <c r="Q23">
-        <v>162.9181583282397</v>
+        <v>39.35830993996456</v>
       </c>
       <c r="R23">
-        <v>39.35830993996456</v>
+        <v>14.29056072822997</v>
       </c>
       <c r="S23">
-        <v>14.29056072822997</v>
+        <v>44.76439259914188</v>
       </c>
       <c r="T23">
-        <v>44.76439259914188</v>
-      </c>
-      <c r="U23">
         <v>135.2897868266464</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -1700,57 +1646,54 @@
         <v>89.54317222354227</v>
       </c>
       <c r="F24">
-        <v>-16.67786288938241</v>
+        <v>45.57944666020582</v>
       </c>
       <c r="G24">
-        <v>45.57944666020582</v>
+        <v>-3.644365185087912</v>
       </c>
       <c r="H24">
-        <v>-3.644365185087912</v>
+        <v>-317.6567239439413</v>
       </c>
       <c r="I24">
-        <v>-317.6567239439413</v>
+        <v>1543.216634332379</v>
       </c>
       <c r="J24">
-        <v>1543.216634332379</v>
+        <v>360.5533489177726</v>
       </c>
       <c r="K24">
-        <v>360.5533489177726</v>
+        <v>123.1975207274126</v>
       </c>
       <c r="L24">
-        <v>123.1975207274126</v>
+        <v>92.54321206666982</v>
       </c>
       <c r="M24">
-        <v>92.54321206666982</v>
+        <v>43.11254944951664</v>
       </c>
       <c r="N24">
-        <v>43.11254944951664</v>
+        <v>52.515043987323</v>
       </c>
       <c r="O24">
-        <v>52.515043987323</v>
+        <v>-7.068764660498552</v>
       </c>
       <c r="P24">
-        <v>-7.068764660498552</v>
+        <v>161.6400409225681</v>
       </c>
       <c r="Q24">
-        <v>161.6400409225681</v>
+        <v>55.72126592143046</v>
       </c>
       <c r="R24">
-        <v>55.72126592143046</v>
+        <v>14.62451703610565</v>
       </c>
       <c r="S24">
-        <v>14.62451703610565</v>
+        <v>44.74939972663543</v>
       </c>
       <c r="T24">
-        <v>44.74939972663543</v>
-      </c>
-      <c r="U24">
         <v>114.1708664314034</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -1765,51 +1708,48 @@
         <v>89.69750839370192</v>
       </c>
       <c r="F25">
-        <v>-17.106189283585</v>
+        <v>49.29500067327515</v>
       </c>
       <c r="G25">
-        <v>49.29500067327515</v>
+        <v>-3.706825810602837</v>
       </c>
       <c r="H25">
-        <v>-3.706825810602837</v>
+        <v>-346.9783136998358</v>
       </c>
       <c r="I25">
-        <v>-346.9783136998358</v>
+        <v>1546.942028716324</v>
       </c>
       <c r="J25">
-        <v>1546.942028716324</v>
+        <v>199.5919011114795</v>
       </c>
       <c r="K25">
-        <v>199.5919011114795</v>
+        <v>340.9454621056049</v>
       </c>
       <c r="L25">
-        <v>340.9454621056049</v>
+        <v>74.96403628988249</v>
       </c>
       <c r="M25">
-        <v>74.96403628988249</v>
+        <v>43.85570231511035</v>
       </c>
       <c r="N25">
-        <v>43.85570231511035</v>
+        <v>51.22016156236158</v>
       </c>
       <c r="O25">
-        <v>51.22016156236158</v>
+        <v>-6.608293117519861</v>
       </c>
       <c r="P25">
-        <v>-6.608293117519861</v>
+        <v>175.9212065526707</v>
       </c>
       <c r="Q25">
-        <v>175.9212065526707</v>
+        <v>23.03079348238011</v>
       </c>
       <c r="R25">
-        <v>23.03079348238011</v>
+        <v>16.3423687501515</v>
       </c>
       <c r="S25">
-        <v>16.3423687501515</v>
+        <v>50.37810703490722</v>
       </c>
       <c r="T25">
-        <v>50.37810703490722</v>
-      </c>
-      <c r="U25">
         <v>136.1644899280295</v>
       </c>
     </row>

--- a/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/output/total-cell-conc.xlsx
+++ b/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/output/total-cell-conc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Sample_name</t>
   </si>
@@ -25,12 +25,18 @@
     <t>intracellular</t>
   </si>
   <si>
+    <t>Asn_X</t>
+  </si>
+  <si>
     <t>Alanine pos</t>
   </si>
   <si>
     <t>Arginine pos</t>
   </si>
   <si>
+    <t>Asparagine pos</t>
+  </si>
+  <si>
     <t>Asparagine-13C4 pos</t>
   </si>
   <si>
@@ -74,6 +80,12 @@
   </si>
   <si>
     <t>Valine pos</t>
+  </si>
+  <si>
+    <t>Asn_prot</t>
+  </si>
+  <si>
+    <t>allAsn_out</t>
   </si>
   <si>
     <t>i24h_1</t>
@@ -503,13 +515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,10 +582,22 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -582,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.7750969024603824</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -632,10 +656,22 @@
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>-0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -644,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.76511435018292</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -694,10 +730,22 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>-0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -706,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.7725585820257781</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -756,10 +804,22 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>-0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -768,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.768990216323013</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -818,10 +878,22 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>-0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -830,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.7690428126067466</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -880,10 +952,22 @@
       <c r="T6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>-0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>24</v>
@@ -892,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.770977977185119</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -942,10 +1026,22 @@
       <c r="T7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>-0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -954,9 +1050,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -965,9 +1061,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -976,9 +1072,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -987,9 +1083,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -998,9 +1094,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1009,9 +1105,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -1020,60 +1116,72 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <v>0.7750969024603824</v>
+      </c>
+      <c r="E14">
         <v>-32.64321753451309</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>115.4308109845743</v>
       </c>
-      <c r="F14">
-        <v>75.18674707271119</v>
-      </c>
       <c r="G14">
+        <v>-18.38394388824639</v>
+      </c>
+      <c r="H14">
+        <v>58.27701476213066</v>
+      </c>
+      <c r="I14">
         <v>-4.200035199897649</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>-368.2735143030116</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>1847.177099787325</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>161.6037070884698</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>418.337913288296</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>98.85980002065344</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>49.63334804680461</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>37.16121445070437</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>-8.424510616559658</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>151.791377999364</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>-34.92493340532203</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>13.23861406855987</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>52.26140617682518</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>56.75160070458125</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="W14">
+        <v>-75.18674707271119</v>
+      </c>
+      <c r="X14">
+        <v>-81.74162156663044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1082,60 +1190,72 @@
         <v>0</v>
       </c>
       <c r="D15">
+        <v>0.76511435018292</v>
+      </c>
+      <c r="E15">
         <v>-28.6292807012873</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>92.51140534276367</v>
       </c>
-      <c r="F15">
-        <v>52.54740816292494</v>
-      </c>
       <c r="G15">
+        <v>-14.9113416968167</v>
+      </c>
+      <c r="H15">
+        <v>40.20477605037298</v>
+      </c>
+      <c r="I15">
         <v>-3.515986652519019</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>-369.9101146669772</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>1894.584128939767</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>269.6148207279969</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>182.4077430376294</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>84.26410632470827</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>26.12918900468021</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>67.85265997324522</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>-8.232232799491662</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>168.0371144046171</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>19.99265299810824</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>12.81294641515688</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>39.81341087615039</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>24.55072235527983</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="W15">
+        <v>-52.54740816292494</v>
+      </c>
+      <c r="X15">
+        <v>-63.48340866472296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -1144,60 +1264,72 @@
         <v>0</v>
       </c>
       <c r="D16">
+        <v>0.7725585820257781</v>
+      </c>
+      <c r="E16">
         <v>-30.31355528475217</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>113.0187762537761</v>
       </c>
-      <c r="F16">
-        <v>49.56663057037827</v>
-      </c>
       <c r="G16">
+        <v>-14.79118094885466</v>
+      </c>
+      <c r="H16">
+        <v>38.29312582924702</v>
+      </c>
+      <c r="I16">
         <v>-3.700053883756317</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>-392.9253750332855</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>1910.727804558905</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>150.9492400489733</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>389.8330555509164</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>159.1712930255574</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>32.55783765897014</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>44.01459913211863</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>-8.161505142431809</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>147.3929821502016</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>-83.6424415170012</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>11.37328312115545</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>44.37676549857461</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>143.636262654356</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="W16">
+        <v>-49.56663057037827</v>
+      </c>
+      <c r="X16">
+        <v>-65.03292619522398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>10</v>
@@ -1206,60 +1338,72 @@
         <v>0</v>
       </c>
       <c r="D17">
+        <v>0.768990216323013</v>
+      </c>
+      <c r="E17">
         <v>-31.25530956567131</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>119.4317404610554</v>
       </c>
-      <c r="F17">
-        <v>72.43117492462736</v>
-      </c>
       <c r="G17">
+        <v>-17.32247644619089</v>
+      </c>
+      <c r="H17">
+        <v>55.69886487381919</v>
+      </c>
+      <c r="I17">
         <v>-2.860672030186501</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>-365.8157826559332</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>1851.95196599759</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>-88.3470085614514</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>625.4227173748524</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>161.9082309106011</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>40.4047549421938</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>46.87425312989036</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>-7.845464327550994</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>171.2338183964044</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>76.41397489380176</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>19.81862514543958</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>28.23311192441268</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>219.8518110588079</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="W17">
+        <v>-72.43117492462736</v>
+      </c>
+      <c r="X17">
+        <v>-74.98589960333591</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -1268,60 +1412,72 @@
         <v>0</v>
       </c>
       <c r="D18">
+        <v>0.7690428126067466</v>
+      </c>
+      <c r="E18">
         <v>-26.45691648698862</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>125.5292390853057</v>
       </c>
-      <c r="F18">
-        <v>57.67755199763089</v>
-      </c>
       <c r="G18">
+        <v>-12.49095122106878</v>
+      </c>
+      <c r="H18">
+        <v>44.35650681252994</v>
+      </c>
+      <c r="I18">
         <v>-3.77539063235369</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>-385.7561152615228</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>2338.119371768385</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>690.8444519923086</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>-175.7224721941887</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>143.4057874641046</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>51.38405772732538</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>65.83474542971915</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>-8.703412109360739</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>192.9836426861256</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>53.89149137026121</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>19.93859739833088</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>54.7482514603098</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>63.97727576304856</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="W18">
+        <v>-57.67755199763089</v>
+      </c>
+      <c r="X18">
+        <v>-54.08340550926565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -1330,60 +1486,72 @@
         <v>0</v>
       </c>
       <c r="D19">
+        <v>0.770977977185119</v>
+      </c>
+      <c r="E19">
         <v>-31.45317817834591</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>132.292263743808</v>
       </c>
-      <c r="F19">
-        <v>63.47609809150383</v>
-      </c>
       <c r="G19">
+        <v>-17.01223906861106</v>
+      </c>
+      <c r="H19">
+        <v>48.93867370619181</v>
+      </c>
+      <c r="I19">
         <v>-3.126546685051371</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>-389.0596897528499</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>2063.289230313775</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>209.6606278157707</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>641.223267260842</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>143.3912937970062</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>33.95084774102132</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>51.26405702743761</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>-8.483304230350193</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>206.4088874666656</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>-8.985672913971069</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>19.20751641288528</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>48.84206834470264</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>104.0356348565058</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="W19">
+        <v>-63.47609809150383</v>
+      </c>
+      <c r="X19">
+        <v>-74.28210990155337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>24</v>
@@ -1392,60 +1560,72 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>-80.32042589594384</v>
+        <v>0.7750969024603824</v>
       </c>
       <c r="E20">
-        <v>90.11657073167426</v>
+        <v>-75.44521835815324</v>
       </c>
       <c r="F20">
-        <v>52.09007202806608</v>
+        <v>84.64676675578316</v>
       </c>
       <c r="G20">
-        <v>-3.099131770982796</v>
+        <v>-15.28323708039618</v>
       </c>
       <c r="H20">
-        <v>-303.910785090456</v>
+        <v>37.92422167636748</v>
       </c>
       <c r="I20">
-        <v>1521.031093245087</v>
+        <v>-2.911023822077301</v>
       </c>
       <c r="J20">
-        <v>227.7991944152482</v>
+        <v>-285.4643172865088</v>
       </c>
       <c r="K20">
-        <v>241.0680143040135</v>
+        <v>1428.70909459671</v>
       </c>
       <c r="L20">
-        <v>93.69922550507786</v>
+        <v>213.9724705485869</v>
       </c>
       <c r="M20">
-        <v>45.46350361050467</v>
+        <v>226.4359131000469</v>
       </c>
       <c r="N20">
-        <v>52.56487873058351</v>
+        <v>88.01196519274718</v>
       </c>
       <c r="O20">
-        <v>-6.456693902473836</v>
+        <v>42.70400609758752</v>
       </c>
       <c r="P20">
-        <v>167.5991892815544</v>
+        <v>49.3743491716095</v>
       </c>
       <c r="Q20">
-        <v>55.40749239643864</v>
+        <v>-6.064792061423752</v>
       </c>
       <c r="R20">
-        <v>14.76049778473236</v>
+        <v>157.4264241125603</v>
       </c>
       <c r="S20">
-        <v>42.02230382422994</v>
+        <v>52.0444247636656</v>
       </c>
       <c r="T20">
-        <v>126.3560651869794</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>13.86458009929958</v>
+      </c>
+      <c r="U20">
+        <v>39.47167675678109</v>
+      </c>
+      <c r="V20">
+        <v>118.6866332265068</v>
+      </c>
+      <c r="W20">
+        <v>-48.92836180351772</v>
+      </c>
+      <c r="X20">
+        <v>-67.95476473019221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -1454,60 +1634,72 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>-77.34347260156272</v>
+        <v>0.76511435018292</v>
       </c>
       <c r="E21">
-        <v>90.8603131683076</v>
+        <v>-72.68770513725899</v>
       </c>
       <c r="F21">
-        <v>54.35021545408437</v>
+        <v>85.3908860063714</v>
       </c>
       <c r="G21">
-        <v>-2.966347593999437</v>
+        <v>-15.64648321443179</v>
       </c>
       <c r="H21">
-        <v>-309.6196051759606</v>
+        <v>39.08093161745818</v>
       </c>
       <c r="I21">
-        <v>1609.692702470169</v>
+        <v>-2.78778534237797</v>
       </c>
       <c r="J21">
-        <v>135.2212367791134</v>
+        <v>-290.981744273143</v>
       </c>
       <c r="K21">
-        <v>317.2448531850219</v>
+        <v>1512.795644973214</v>
       </c>
       <c r="L21">
-        <v>116.8892329262944</v>
+        <v>127.0814595813362</v>
       </c>
       <c r="M21">
-        <v>45.36263709558862</v>
+        <v>298.1479828739933</v>
       </c>
       <c r="N21">
-        <v>66.67209180924387</v>
+        <v>109.8529689820935</v>
       </c>
       <c r="O21">
-        <v>-6.38594522113101</v>
+        <v>42.63198791756876</v>
       </c>
       <c r="P21">
-        <v>182.9491333339004</v>
+        <v>62.65869875380614</v>
       </c>
       <c r="Q21">
-        <v>83.47583682879296</v>
+        <v>-6.001536880138483</v>
       </c>
       <c r="R21">
-        <v>17.39334011702206</v>
+        <v>171.9363278061935</v>
       </c>
       <c r="S21">
-        <v>59.68305465951098</v>
+        <v>78.45092558430912</v>
       </c>
       <c r="T21">
-        <v>135.9423514045123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>16.34633066310773</v>
+      </c>
+      <c r="U21">
+        <v>56.09037366514355</v>
+      </c>
+      <c r="V21">
+        <v>127.759165992725</v>
+      </c>
+      <c r="W21">
+        <v>-51.07855003388043</v>
+      </c>
+      <c r="X21">
+        <v>-66.61319338417086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>24</v>
@@ -1516,60 +1708,72 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>-83.40532614814971</v>
+        <v>0.7725585820257781</v>
       </c>
       <c r="E22">
-        <v>87.78995343503611</v>
+        <v>-78.33900959142301</v>
       </c>
       <c r="F22">
-        <v>48.79797230186755</v>
+        <v>82.45730005253918</v>
       </c>
       <c r="G22">
-        <v>-3.431981494078876</v>
+        <v>-16.37899856709716</v>
       </c>
       <c r="H22">
-        <v>-338.9963597418238</v>
+        <v>35.40931204844106</v>
       </c>
       <c r="I22">
-        <v>1516.234962575484</v>
+        <v>-3.223511538156077</v>
       </c>
       <c r="J22">
-        <v>120.171652488404</v>
+        <v>-318.4045948108958</v>
       </c>
       <c r="K22">
-        <v>330.3281389134168</v>
+        <v>1424.133814488858</v>
       </c>
       <c r="L22">
-        <v>91.79956672091696</v>
+        <v>112.8720271434977</v>
       </c>
       <c r="M22">
-        <v>37.98704735025805</v>
+        <v>310.262910508733</v>
       </c>
       <c r="N22">
-        <v>45.699862470539</v>
+        <v>86.22335610875048</v>
       </c>
       <c r="O22">
-        <v>-6.640994654026676</v>
+        <v>35.67958791307624</v>
       </c>
       <c r="P22">
-        <v>163.2956709344234</v>
+        <v>42.92390102338433</v>
       </c>
       <c r="Q22">
-        <v>27.18904262987289</v>
+        <v>-6.237598579427484</v>
       </c>
       <c r="R22">
-        <v>13.75027546619264</v>
+        <v>153.3765494645625</v>
       </c>
       <c r="S22">
-        <v>37.05824791203641</v>
+        <v>25.5374898670122</v>
       </c>
       <c r="T22">
-        <v>113.3113403443707</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>12.91503806024827</v>
+      </c>
+      <c r="U22">
+        <v>34.80720683791434</v>
+      </c>
+      <c r="V22">
+        <v>106.4284331469109</v>
+      </c>
+      <c r="W22">
+        <v>-45.8338213726031</v>
+      </c>
+      <c r="X22">
+        <v>-72.0141419842605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>24</v>
@@ -1578,60 +1782,72 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>-79.25913315512109</v>
+        <v>0.768990216323013</v>
       </c>
       <c r="E23">
-        <v>78.97686665160158</v>
+        <v>-74.56486918459588</v>
       </c>
       <c r="F23">
-        <v>42.17560828366041</v>
+        <v>74.29932041977489</v>
       </c>
       <c r="G23">
-        <v>-3.169594470414051</v>
+        <v>-15.89884408457533</v>
       </c>
       <c r="H23">
-        <v>-309.3202064377434</v>
+        <v>30.51174958966569</v>
       </c>
       <c r="I23">
-        <v>1487.085083646193</v>
+        <v>-2.981869566906458</v>
       </c>
       <c r="J23">
-        <v>165.1019813493313</v>
+        <v>-291.0001637797661</v>
       </c>
       <c r="K23">
-        <v>181.2455508488956</v>
+        <v>1399.009808893901</v>
       </c>
       <c r="L23">
-        <v>79.92962251799416</v>
+        <v>155.3235211055932</v>
       </c>
       <c r="M23">
-        <v>42.41744808487559</v>
+        <v>170.5109588176807</v>
       </c>
       <c r="N23">
-        <v>47.76816180978093</v>
+        <v>75.19564761532193</v>
       </c>
       <c r="O23">
-        <v>-6.577300498217599</v>
+        <v>39.90519882930082</v>
       </c>
       <c r="P23">
-        <v>162.9181583282397</v>
+        <v>44.93900696042105</v>
       </c>
       <c r="Q23">
-        <v>39.35830993996456</v>
+        <v>-6.18774810818991</v>
       </c>
       <c r="R23">
-        <v>14.29056072822997</v>
+        <v>153.2690389101936</v>
       </c>
       <c r="S23">
-        <v>44.76439259914188</v>
+        <v>37.02724361439244</v>
       </c>
       <c r="T23">
-        <v>135.2897868266464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>13.44417670061463</v>
+      </c>
+      <c r="U23">
+        <v>42.113141355587</v>
+      </c>
+      <c r="V23">
+        <v>127.2770071431062</v>
+      </c>
+      <c r="W23">
+        <v>-39.67768242300924</v>
+      </c>
+      <c r="X23">
+        <v>-68.82324995726647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -1640,60 +1856,72 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>-80.8303610394299</v>
+        <v>0.7690428126067466</v>
       </c>
       <c r="E24">
-        <v>89.54317222354227</v>
+        <v>-75.94449888019159</v>
       </c>
       <c r="F24">
-        <v>45.57944666020582</v>
+        <v>84.13065654058315</v>
       </c>
       <c r="G24">
-        <v>-3.644365185087912</v>
+        <v>-15.66975482033087</v>
       </c>
       <c r="H24">
-        <v>-317.6567239439413</v>
+        <v>32.93376393874649</v>
       </c>
       <c r="I24">
-        <v>1543.216634332379</v>
+        <v>-3.424078330949271</v>
       </c>
       <c r="J24">
-        <v>360.5533489177726</v>
+        <v>-298.4556842951364</v>
       </c>
       <c r="K24">
-        <v>123.1975207274126</v>
+        <v>1449.935549598468</v>
       </c>
       <c r="L24">
-        <v>92.54321206666982</v>
+        <v>338.7593851000846</v>
       </c>
       <c r="M24">
-        <v>43.11254944951664</v>
+        <v>115.7507383934772</v>
       </c>
       <c r="N24">
-        <v>52.515043987323</v>
+        <v>86.94935634072121</v>
       </c>
       <c r="O24">
-        <v>-7.068764660498552</v>
+        <v>40.5065735360733</v>
       </c>
       <c r="P24">
-        <v>161.6400409225681</v>
+        <v>49.34072603415645</v>
       </c>
       <c r="Q24">
-        <v>55.72126592143046</v>
+        <v>-6.641486972719286</v>
       </c>
       <c r="R24">
-        <v>14.62451703610565</v>
+        <v>151.869566694746</v>
       </c>
       <c r="S24">
-        <v>44.74939972663543</v>
+        <v>52.35314506771353</v>
       </c>
       <c r="T24">
-        <v>114.1708664314034</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>13.74052526042882</v>
+      </c>
+      <c r="U24">
+        <v>42.04448296068974</v>
+      </c>
+      <c r="V24">
+        <v>107.2697081437083</v>
+      </c>
+      <c r="W24">
+        <v>-42.82435697840312</v>
+      </c>
+      <c r="X24">
+        <v>-67.84701094255102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -1702,55 +1930,67 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>-81.65172471486844</v>
+        <v>0.770977977185119</v>
       </c>
       <c r="E25">
-        <v>89.69750839370192</v>
+        <v>-76.72619243161593</v>
       </c>
       <c r="F25">
-        <v>49.29500067327515</v>
+        <v>84.28662485311162</v>
       </c>
       <c r="G25">
-        <v>-3.706825810602837</v>
+        <v>-16.07428104338609</v>
       </c>
       <c r="H25">
-        <v>-346.9783136998358</v>
+        <v>35.712736842268</v>
       </c>
       <c r="I25">
-        <v>1546.942028716324</v>
+        <v>-3.48321644702508</v>
       </c>
       <c r="J25">
-        <v>199.5919011114795</v>
+        <v>-326.0473059142054</v>
       </c>
       <c r="K25">
-        <v>340.9454621056049</v>
+        <v>1453.624797152997</v>
       </c>
       <c r="L25">
-        <v>74.96403628988249</v>
+        <v>187.5517837002019</v>
       </c>
       <c r="M25">
-        <v>43.85570231511035</v>
+        <v>320.3783781120466</v>
       </c>
       <c r="N25">
-        <v>51.22016156236158</v>
+        <v>70.44192996428895</v>
       </c>
       <c r="O25">
-        <v>-6.608293117519861</v>
+        <v>41.21016508595672</v>
       </c>
       <c r="P25">
-        <v>175.9212065526707</v>
+        <v>48.1303730709388</v>
       </c>
       <c r="Q25">
-        <v>23.03079348238011</v>
+        <v>-6.209656576758435</v>
       </c>
       <c r="R25">
-        <v>16.3423687501515</v>
+        <v>165.3089924786901</v>
       </c>
       <c r="S25">
-        <v>50.37810703490722</v>
+        <v>21.6414913310475</v>
       </c>
       <c r="T25">
-        <v>136.1644899280295</v>
+        <v>15.35653697323828</v>
+      </c>
+      <c r="U25">
+        <v>47.33911436897029</v>
+      </c>
+      <c r="V25">
+        <v>127.9505471936271</v>
+      </c>
+      <c r="W25">
+        <v>-46.32134496585373</v>
+      </c>
+      <c r="X25">
+        <v>-70.18661718999384</v>
       </c>
     </row>
   </sheetData>
